--- a/data/STL_1994.xlsx
+++ b/data/STL_1994.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB39"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +574,21 @@
           <t>Unnamed: 27</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Wins</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Losses</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Ties</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -712,6 +727,15 @@
         </is>
       </c>
       <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -850,6 +874,15 @@
         </is>
       </c>
       <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -984,6 +1017,15 @@
       </c>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1118,6 +1160,15 @@
       </c>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1252,6 +1303,15 @@
       </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1390,6 +1450,15 @@
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1528,6 +1597,15 @@
         </is>
       </c>
       <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1662,6 +1740,15 @@
       </c>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1796,6 +1883,15 @@
       </c>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1930,6 +2026,15 @@
       </c>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2068,6 +2173,15 @@
         </is>
       </c>
       <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2206,6 +2320,15 @@
         </is>
       </c>
       <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2348,6 +2471,15 @@
           <t>All-Star</t>
         </is>
       </c>
+      <c r="AC14" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2486,6 +2618,15 @@
         </is>
       </c>
       <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2624,6 +2765,15 @@
         </is>
       </c>
       <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2762,6 +2912,15 @@
         </is>
       </c>
       <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2900,6 +3059,15 @@
         </is>
       </c>
       <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3038,6 +3206,15 @@
         </is>
       </c>
       <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3172,6 +3349,15 @@
       </c>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3310,6 +3496,15 @@
         </is>
       </c>
       <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3448,6 +3643,15 @@
         </is>
       </c>
       <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3586,6 +3790,15 @@
         </is>
       </c>
       <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3724,6 +3937,15 @@
         </is>
       </c>
       <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3862,6 +4084,15 @@
         </is>
       </c>
       <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4000,6 +4231,15 @@
         </is>
       </c>
       <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4138,6 +4378,15 @@
         </is>
       </c>
       <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4276,6 +4525,15 @@
         </is>
       </c>
       <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4414,6 +4672,15 @@
         </is>
       </c>
       <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4556,6 +4823,15 @@
           <t>All-Star</t>
         </is>
       </c>
+      <c r="AC30" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4690,6 +4966,15 @@
       </c>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4828,6 +5113,15 @@
         </is>
       </c>
       <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4966,6 +5260,15 @@
         </is>
       </c>
       <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5104,6 +5407,15 @@
         </is>
       </c>
       <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5242,6 +5554,15 @@
         </is>
       </c>
       <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5380,6 +5701,15 @@
         </is>
       </c>
       <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5514,6 +5844,15 @@
       </c>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5652,6 +5991,15 @@
         </is>
       </c>
       <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5786,6 +6134,15 @@
         </is>
       </c>
       <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="n">
+        <v>53</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>61</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
